--- a/Excel Obstacle Course MAC XTimer.xlsx
+++ b/Excel Obstacle Course MAC XTimer.xlsx
@@ -8,26 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imac/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83530446-A299-6B44-B2C5-1CED7C3F196E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3E7F12-8315-E849-BC4E-3445D25279A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{5CF35BC1-3C6A-47AE-B65B-49B400E6A29D}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="20100" xr2:uid="{5CF35BC1-3C6A-47AE-B65B-49B400E6A29D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Creator's Message" sheetId="15" r:id="rId1"/>
-    <sheet name="Main Page" sheetId="1" r:id="rId2"/>
-    <sheet name="START" sheetId="2" r:id="rId3"/>
-    <sheet name="Row Delete" sheetId="3" r:id="rId4"/>
-    <sheet name="Column and Row Delete" sheetId="4" r:id="rId5"/>
-    <sheet name="Arrow Navigation" sheetId="5" r:id="rId6"/>
-    <sheet name="Switching Sheets" sheetId="6" r:id="rId7"/>
-    <sheet name="Switching Sheets2" sheetId="7" r:id="rId8"/>
-    <sheet name="Switching Sheets3" sheetId="8" r:id="rId9"/>
-    <sheet name="Copy Down" sheetId="9" r:id="rId10"/>
-    <sheet name="Copy Right" sheetId="10" r:id="rId11"/>
-    <sheet name="Totals" sheetId="11" r:id="rId12"/>
-    <sheet name="Sorting" sheetId="12" r:id="rId13"/>
-    <sheet name="Copy and Paste as Values" sheetId="13" r:id="rId14"/>
-    <sheet name="FINAL" sheetId="14" r:id="rId15"/>
+    <sheet name="Main Page" sheetId="1" r:id="rId1"/>
+    <sheet name="START" sheetId="2" r:id="rId2"/>
+    <sheet name="Row Delete" sheetId="3" r:id="rId3"/>
+    <sheet name="Column and Row Delete" sheetId="4" r:id="rId4"/>
+    <sheet name="Arrow Navigation" sheetId="5" r:id="rId5"/>
+    <sheet name="Switching Sheets" sheetId="6" r:id="rId6"/>
+    <sheet name="Switching Sheets2" sheetId="7" r:id="rId7"/>
+    <sheet name="Switching Sheets3" sheetId="8" r:id="rId8"/>
+    <sheet name="Copy Down" sheetId="9" r:id="rId9"/>
+    <sheet name="Copy Right" sheetId="10" r:id="rId10"/>
+    <sheet name="Totals" sheetId="11" r:id="rId11"/>
+    <sheet name="Sorting" sheetId="12" r:id="rId12"/>
+    <sheet name="Copy and Paste as Values" sheetId="13" r:id="rId13"/>
+    <sheet name="FINAL" sheetId="14" r:id="rId14"/>
+    <sheet name="Creator's Message" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -500,6 +500,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -536,7 +537,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
@@ -558,1152 +558,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05A4427F-E7C0-4DB3-B52D-DFC1083A26BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12858750" cy="5419725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="8000"/>
-            <a:t>Welcome!</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="4000"/>
-            <a:t>To</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="4000" baseline="0"/>
-            <a:t> show appreciation for this </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="4000" baseline="0"/>
-            <a:t>valuable, free resource, </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="4000" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Please subscribe to my </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="4000" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>YouTube channel: ExcelObstacleCourse</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="4000" baseline="0"/>
-            <a:t>Please also share my videos so we can continue to</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="4000" baseline="0"/>
-            <a:t>grow the audience and community!</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71153BB3-5D20-49A3-8BA9-89FD55F22425}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6067425" y="323850"/>
-          <a:ext cx="4781550" cy="1905000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Obstacle:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Copy down the cells in columns B, C and D</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Hotkey hints:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Highlight the cells first.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>control and D (copies cells from the topmost highlighted cells to the bottom)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>The end result should look like</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>this -------&gt;</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2442787" cy="2838450"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33DDFE39-C2EB-410B-BAFD-83B0DADDD935}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6981825" y="1981201"/>
-          <a:ext cx="2442787" cy="2838450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4617D0C-FD28-426F-8838-1CE3842605EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6067425" y="323850"/>
-          <a:ext cx="4781550" cy="1924050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Obstacle:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Copy the cells in columns 2 3 and 4 to the right.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Hotkey hints:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Highlight the cells first.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>CTRL and R (copies cells from the leftmost highlighted cells to the right)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>The end result should look like</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>this -------&gt;</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5048250" cy="927741"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DF74CE1-0707-4B86-9FF3-4B6007B15E29}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6934201" y="1752600"/>
-          <a:ext cx="5048250" cy="927741"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA46746-E141-45A0-94ED-9B3A48A49FDE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4267200" y="190500"/>
-          <a:ext cx="4781550" cy="1933575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Obstacle:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Place totals of each column (A through D) in row 20.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Hotkey hints:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Highlight cells A20, B20, C20 and D20</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>command / shift and T (sums the numbers directly above the cursor)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>The end result should look like</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>this -------&gt;</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2600325" cy="3267464"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89243090-ED66-4057-9981-3617A5092239}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5057775" y="1619250"/>
-          <a:ext cx="2600325" cy="3267464"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35B6528A-09AE-4579-9FB2-B90448F437C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="190499"/>
-          <a:ext cx="4781550" cy="3895725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Obstacle:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Sort the numbers in column A in ascending order</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Hotkey hints:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Highlight all the colored cells first, then press at the same time:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>SHIFT COMMAND R</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Hit Enter</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>End result should look like this -------------------------------------------&gt;</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>265113</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="706331" cy="4523696"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{250022EE-CE43-43FE-80F1-0EC4985D0638}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5141913" y="1295400"/>
-          <a:ext cx="706331" cy="4523696"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06276589-4C28-48E8-BF8B-38096C65D0F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6734175" y="428626"/>
-          <a:ext cx="4781550" cy="3514724"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Obstacle:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Copy the grid of numbers in columns A, B and C, rows 1 - 10, and paste as values in the grid appearing in columns G, H and I, rows 1 - 10.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Hotkey hints:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Highlight the cells to copy, then press (in order):</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>1) control and C</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Then move your cursor to cell G1, and press (in order)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>1) press (command and option and V) at same time</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>2) V (again)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>3) Enter</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>End result should look like this</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>----------------------------------------&gt;</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1599948" cy="1771650"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C86F8C4-5242-4085-82A8-E6646CD6C33E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9172576" y="3362326"/>
-          <a:ext cx="1599948" cy="1771650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1590675</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C093E14E-EA53-4E0B-A816-2EAA9AFBE3BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8553450" y="1514475"/>
-          <a:ext cx="1885950" cy="838200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>NOTE: you must hold down fn and command and continue to tap Pg Up until you arrive at the Main Page</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2077,7 +931,968 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4617D0C-FD28-426F-8838-1CE3842605EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6067425" y="323850"/>
+          <a:ext cx="4781550" cy="1924050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Obstacle:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Copy the cells in columns 2 3 and 4 to the right.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Hotkey hints:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Highlight the cells first.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CTRL and R (copies cells from the leftmost highlighted cells to the right)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>The end result should look like</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>this -------&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5048250" cy="927741"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DF74CE1-0707-4B86-9FF3-4B6007B15E29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934201" y="1752600"/>
+          <a:ext cx="5048250" cy="927741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA46746-E141-45A0-94ED-9B3A48A49FDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="190500"/>
+          <a:ext cx="4781550" cy="1933575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Obstacle:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Place totals of each column (A through D) in row 20.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Hotkey hints:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Highlight cells A20, B20, C20 and D20</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>command / shift and T (sums the numbers directly above the cursor)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>The end result should look like</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>this -------&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2600325" cy="3267464"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89243090-ED66-4057-9981-3617A5092239}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5057775" y="1619250"/>
+          <a:ext cx="2600325" cy="3267464"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35B6528A-09AE-4579-9FB2-B90448F437C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="190499"/>
+          <a:ext cx="4781550" cy="3895725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Obstacle:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Sort the numbers in column A in ascending order</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Hotkey hints:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Highlight all the colored cells first, then press at the same time:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>SHIFT COMMAND R</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Hit Enter</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>End result should look like this -------------------------------------------&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>265113</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="706331" cy="4523696"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{250022EE-CE43-43FE-80F1-0EC4985D0638}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5141913" y="1295400"/>
+          <a:ext cx="706331" cy="4523696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06276589-4C28-48E8-BF8B-38096C65D0F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6734175" y="428626"/>
+          <a:ext cx="4781550" cy="3514724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Obstacle:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Copy the grid of numbers in columns A, B and C, rows 1 - 10, and paste as values in the grid appearing in columns G, H and I, rows 1 - 10.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Hotkey hints:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Highlight the cells to copy, then press (in order):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>1) control and C</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Then move your cursor to cell G1, and press (in order)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>1) press (command and option and V) at same time</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2) V (again)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>3) Enter</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>End result should look like this</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>----------------------------------------&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1599948" cy="1771650"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C86F8C4-5242-4085-82A8-E6646CD6C33E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9172576" y="3362326"/>
+          <a:ext cx="1599948" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1590675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C093E14E-EA53-4E0B-A816-2EAA9AFBE3BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8553450" y="1514475"/>
+          <a:ext cx="1885950" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>NOTE: you must hold down fn and command and continue to tap Pg Up until you arrive at the Main Page</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05A4427F-E7C0-4DB3-B52D-DFC1083A26BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12858750" cy="5419725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="8000"/>
+            <a:t>Welcome!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000"/>
+            <a:t>To</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t> show appreciation for this </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t>valuable, free resource, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Please subscribe to my </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>YouTube channel: ExcelObstacleCourse</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t>Please also share my videos so we can continue to</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t>grow the audience and community!</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2194,7 +2009,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2311,7 +2126,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2434,7 +2249,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2545,7 +2360,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2685,7 +2500,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2819,7 +2634,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2953,6 +2768,191 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71153BB3-5D20-49A3-8BA9-89FD55F22425}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6067425" y="323850"/>
+          <a:ext cx="4781550" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Obstacle:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Copy down the cells in columns B, C and D</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Hotkey hints:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Highlight the cells first.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>control and D (copies cells from the topmost highlighted cells to the bottom)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>The end result should look like</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>this -------&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2442787" cy="2838450"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33DDFE39-C2EB-410B-BAFD-83B0DADDD935}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6981825" y="1981201"/>
+          <a:ext cx="2442787" cy="2838450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3252,1025 +3252,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAE1B3A-87AE-4838-BE0D-9B19BFFA8D8C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01C749F-FD13-4858-A24A-9AE74457A6EF}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64354E51-3221-490C-A7C3-7B517FC73A10}">
-  <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE7A47C-717A-4A5A-BB42-419D6C10A43A}">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="6">
-        <v>35</v>
-      </c>
-      <c r="B1" s="6">
-        <v>93</v>
-      </c>
-      <c r="C1" s="6">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>82</v>
-      </c>
-      <c r="B2" s="6">
-        <v>68</v>
-      </c>
-      <c r="C2" s="6">
-        <v>98</v>
-      </c>
-      <c r="D2" s="6">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>33</v>
-      </c>
-      <c r="B3" s="6">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6">
-        <v>50</v>
-      </c>
-      <c r="D3" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>94</v>
-      </c>
-      <c r="B4" s="6">
-        <v>63</v>
-      </c>
-      <c r="C4" s="6">
-        <v>94</v>
-      </c>
-      <c r="D4" s="6">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>32</v>
-      </c>
-      <c r="B5" s="6">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6">
-        <v>89</v>
-      </c>
-      <c r="D5" s="6">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>96</v>
-      </c>
-      <c r="B6" s="6">
-        <v>68</v>
-      </c>
-      <c r="C6" s="6">
-        <v>38</v>
-      </c>
-      <c r="D6" s="6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>77</v>
-      </c>
-      <c r="B7" s="6">
-        <v>85</v>
-      </c>
-      <c r="C7" s="6">
-        <v>83</v>
-      </c>
-      <c r="D7" s="6">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>34</v>
-      </c>
-      <c r="B8" s="6">
-        <v>36</v>
-      </c>
-      <c r="C8" s="6">
-        <v>61</v>
-      </c>
-      <c r="D8" s="6">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>66</v>
-      </c>
-      <c r="B9" s="6">
-        <v>85</v>
-      </c>
-      <c r="C9" s="6">
-        <v>40</v>
-      </c>
-      <c r="D9" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>19</v>
-      </c>
-      <c r="B10" s="6">
-        <v>32</v>
-      </c>
-      <c r="C10" s="6">
-        <v>77</v>
-      </c>
-      <c r="D10" s="6">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>24</v>
-      </c>
-      <c r="B11" s="6">
-        <v>65</v>
-      </c>
-      <c r="C11" s="6">
-        <v>66</v>
-      </c>
-      <c r="D11" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>91</v>
-      </c>
-      <c r="B12" s="6">
-        <v>54</v>
-      </c>
-      <c r="C12" s="6">
-        <v>89</v>
-      </c>
-      <c r="D12" s="6">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>83</v>
-      </c>
-      <c r="B13" s="6">
-        <v>87</v>
-      </c>
-      <c r="C13" s="6">
-        <v>9</v>
-      </c>
-      <c r="D13" s="6">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>39</v>
-      </c>
-      <c r="B14" s="6">
-        <v>100</v>
-      </c>
-      <c r="C14" s="6">
-        <v>23</v>
-      </c>
-      <c r="D14" s="6">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>97</v>
-      </c>
-      <c r="B15" s="6">
-        <v>53</v>
-      </c>
-      <c r="C15" s="6">
-        <v>54</v>
-      </c>
-      <c r="D15" s="6">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>38</v>
-      </c>
-      <c r="B16" s="6">
-        <v>94</v>
-      </c>
-      <c r="C16" s="6">
-        <v>43</v>
-      </c>
-      <c r="D16" s="6">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>50</v>
-      </c>
-      <c r="B17" s="6">
-        <v>87</v>
-      </c>
-      <c r="C17" s="6">
-        <v>32</v>
-      </c>
-      <c r="D17" s="6">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>60</v>
-      </c>
-      <c r="B18" s="6">
-        <v>42</v>
-      </c>
-      <c r="C18" s="6">
-        <v>18</v>
-      </c>
-      <c r="D18" s="6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>30</v>
-      </c>
-      <c r="B19" s="6">
-        <v>36</v>
-      </c>
-      <c r="C19" s="6">
-        <v>63</v>
-      </c>
-      <c r="D19" s="6">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBF7782-C579-4CFA-B2B5-7A6586F429B1}">
-  <sheetPr codeName="Sheet12"/>
-  <dimension ref="A2:A27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>9603</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>8789</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>5430</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>2772</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>4352</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>4790</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>5140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>8427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>5255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>8703</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>5599</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>6010</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>7508</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>8390</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>8695</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>4377</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>8762</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <v>5178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>8842</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
-        <v>8979</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
-        <v>9025</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
-        <v>9308</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A2:A27">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA64087-C1CD-48F2-A387-A003C5691135}">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:V12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="6">
-        <f>A12+1</f>
-        <v>6</v>
-      </c>
-      <c r="B1" s="6">
-        <f t="shared" ref="B1:C10" si="0">A1+1</f>
-        <v>7</v>
-      </c>
-      <c r="C1" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <f t="shared" ref="A2:A10" si="1">A1+1</f>
-        <v>7</v>
-      </c>
-      <c r="B2" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C2" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B3" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C3" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B4" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C4" s="6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B5" s="6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C5" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B6" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C6" s="6">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B7" s="6">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C7" s="6">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B8" s="6">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C8" s="6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B9" s="6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C9" s="6">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="V9" s="37"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B10" s="6">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C10" s="6">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D23A4F-35B9-420E-81A1-913A9E203D5E}">
-  <sheetPr codeName="Sheet14"/>
-  <dimension ref="A2:L13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="12" max="12" width="34.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-    </row>
-    <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="1">
-      <c r="A12" s="13"/>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:L10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6988C38D-57A3-49C6-B6CF-22BE4EB1BF6B}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4295,13 +3281,13 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D3" s="25" t="str">
+      <c r="D3" s="26" t="str">
         <f>IF(AND(B5&lt;&gt;"",B6=""),"TIMER STARTED!  PROCEED TO 'START'","")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="26"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
@@ -4312,7 +3298,7 @@
         <f ca="1">IF(B5&lt;&gt;"",IF(C5&lt;&gt;"",C5,NOW()),"")</f>
         <v/>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.25">
@@ -4324,7 +3310,7 @@
         <f ca="1">IF(B6&lt;&gt;"",IF(C6&lt;&gt;"",C6,NOW()),"")</f>
         <v/>
       </c>
-      <c r="D6" s="28" t="str">
+      <c r="D6" s="29" t="str">
         <f>IF(B6&lt;&gt;"","TIMER STOPPED!","")</f>
         <v/>
       </c>
@@ -4332,12 +3318,12 @@
     </row>
     <row r="7" spans="1:17" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
-      <c r="D7" s="29"/>
+      <c r="D7" s="30"/>
       <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:17" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
-      <c r="D8" s="30"/>
+      <c r="D8" s="31"/>
       <c r="Q8" s="20"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -4366,7 +3352,880 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64354E51-3221-490C-A7C3-7B517FC73A10}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE7A47C-717A-4A5A-BB42-419D6C10A43A}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="6">
+        <v>35</v>
+      </c>
+      <c r="B1" s="6">
+        <v>93</v>
+      </c>
+      <c r="C1" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>82</v>
+      </c>
+      <c r="B2" s="6">
+        <v>68</v>
+      </c>
+      <c r="C2" s="6">
+        <v>98</v>
+      </c>
+      <c r="D2" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6">
+        <v>50</v>
+      </c>
+      <c r="D3" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>94</v>
+      </c>
+      <c r="B4" s="6">
+        <v>63</v>
+      </c>
+      <c r="C4" s="6">
+        <v>94</v>
+      </c>
+      <c r="D4" s="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>32</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>89</v>
+      </c>
+      <c r="D5" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>96</v>
+      </c>
+      <c r="B6" s="6">
+        <v>68</v>
+      </c>
+      <c r="C6" s="6">
+        <v>38</v>
+      </c>
+      <c r="D6" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>77</v>
+      </c>
+      <c r="B7" s="6">
+        <v>85</v>
+      </c>
+      <c r="C7" s="6">
+        <v>83</v>
+      </c>
+      <c r="D7" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>34</v>
+      </c>
+      <c r="B8" s="6">
+        <v>36</v>
+      </c>
+      <c r="C8" s="6">
+        <v>61</v>
+      </c>
+      <c r="D8" s="6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>66</v>
+      </c>
+      <c r="B9" s="6">
+        <v>85</v>
+      </c>
+      <c r="C9" s="6">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6">
+        <v>32</v>
+      </c>
+      <c r="C10" s="6">
+        <v>77</v>
+      </c>
+      <c r="D10" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>24</v>
+      </c>
+      <c r="B11" s="6">
+        <v>65</v>
+      </c>
+      <c r="C11" s="6">
+        <v>66</v>
+      </c>
+      <c r="D11" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>91</v>
+      </c>
+      <c r="B12" s="6">
+        <v>54</v>
+      </c>
+      <c r="C12" s="6">
+        <v>89</v>
+      </c>
+      <c r="D12" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>83</v>
+      </c>
+      <c r="B13" s="6">
+        <v>87</v>
+      </c>
+      <c r="C13" s="6">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>39</v>
+      </c>
+      <c r="B14" s="6">
+        <v>100</v>
+      </c>
+      <c r="C14" s="6">
+        <v>23</v>
+      </c>
+      <c r="D14" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>97</v>
+      </c>
+      <c r="B15" s="6">
+        <v>53</v>
+      </c>
+      <c r="C15" s="6">
+        <v>54</v>
+      </c>
+      <c r="D15" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>38</v>
+      </c>
+      <c r="B16" s="6">
+        <v>94</v>
+      </c>
+      <c r="C16" s="6">
+        <v>43</v>
+      </c>
+      <c r="D16" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>50</v>
+      </c>
+      <c r="B17" s="6">
+        <v>87</v>
+      </c>
+      <c r="C17" s="6">
+        <v>32</v>
+      </c>
+      <c r="D17" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>60</v>
+      </c>
+      <c r="B18" s="6">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6">
+        <v>18</v>
+      </c>
+      <c r="D18" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>30</v>
+      </c>
+      <c r="B19" s="6">
+        <v>36</v>
+      </c>
+      <c r="C19" s="6">
+        <v>63</v>
+      </c>
+      <c r="D19" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBF7782-C579-4CFA-B2B5-7A6586F429B1}">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A2:A27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>9603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>8789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>8427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>5255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>8703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>7508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>8390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>8695</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>8762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>5178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>8842</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>8979</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>9025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>9308</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A27">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA64087-C1CD-48F2-A387-A003C5691135}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:V12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="6">
+        <f>A12+1</f>
+        <v>6</v>
+      </c>
+      <c r="B1" s="6">
+        <f t="shared" ref="B1:C10" si="0">A1+1</f>
+        <v>7</v>
+      </c>
+      <c r="C1" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <f t="shared" ref="A2:A10" si="1">A1+1</f>
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C2" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B3" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B5" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B6" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B7" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B8" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="V9" s="25"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D23A4F-35B9-420E-81A1-913A9E203D5E}">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A2:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="12" max="12" width="34.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="1">
+      <c r="A12" s="13"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:L10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAE1B3A-87AE-4838-BE0D-9B19BFFA8D8C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1613475-6024-4178-A6E1-4726614E8B63}">
   <sheetPr codeName="Sheet2">
     <tabColor theme="9"/>
@@ -4374,7 +4233,7 @@
   <dimension ref="C1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4387,13 +4246,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDC07D5-EF80-4153-9E07-F7A15DCAF65E}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A7:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4419,12 +4278,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143E98D0-7323-471D-A1CC-4652EE3F1587}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A8:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4610,7 +4471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE09783C-AC36-40B3-BE1D-87683638E530}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A14:X26"/>
@@ -4983,7 +4844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABFEA3A-40E1-4BC0-A55C-26A2035D475A}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="K5:S11"/>
@@ -4995,83 +4856,83 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="5" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
     </row>
     <row r="6" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
     </row>
     <row r="7" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
     </row>
     <row r="8" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
     </row>
     <row r="9" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
     </row>
     <row r="10" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
     </row>
     <row r="11" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5083,7 +4944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9DF1E5-299F-4E45-9E5E-30DD070D2865}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="K5:S11"/>
@@ -5095,83 +4956,83 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="5" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
     </row>
     <row r="6" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
     </row>
     <row r="7" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
     </row>
     <row r="8" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
     </row>
     <row r="9" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
     </row>
     <row r="10" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
     </row>
     <row r="11" spans="11:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5182,7 +5043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77EF86A-A2E4-499A-BA5D-4DB4F6FBA0B9}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="K5:S11"/>
@@ -5194,83 +5055,83 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="5" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
     </row>
     <row r="6" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
     </row>
     <row r="7" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
     </row>
     <row r="8" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
     </row>
     <row r="9" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
     </row>
     <row r="10" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
     </row>
     <row r="11" spans="11:19" x14ac:dyDescent="0.2">
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5279,4 +5140,145 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01C749F-FD13-4858-A24A-9AE74457A6EF}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel Obstacle Course MAC XTimer.xlsx
+++ b/Excel Obstacle Course MAC XTimer.xlsx
@@ -8,26 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imac/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3E7F12-8315-E849-BC4E-3445D25279A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8750380-8823-2640-8E2D-EDC6DEAA5835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="20100" xr2:uid="{5CF35BC1-3C6A-47AE-B65B-49B400E6A29D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{5CF35BC1-3C6A-47AE-B65B-49B400E6A29D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main Page" sheetId="1" r:id="rId1"/>
-    <sheet name="START" sheetId="2" r:id="rId2"/>
-    <sheet name="Row Delete" sheetId="3" r:id="rId3"/>
-    <sheet name="Column and Row Delete" sheetId="4" r:id="rId4"/>
-    <sheet name="Arrow Navigation" sheetId="5" r:id="rId5"/>
-    <sheet name="Switching Sheets" sheetId="6" r:id="rId6"/>
-    <sheet name="Switching Sheets2" sheetId="7" r:id="rId7"/>
-    <sheet name="Switching Sheets3" sheetId="8" r:id="rId8"/>
-    <sheet name="Copy Down" sheetId="9" r:id="rId9"/>
-    <sheet name="Copy Right" sheetId="10" r:id="rId10"/>
-    <sheet name="Totals" sheetId="11" r:id="rId11"/>
-    <sheet name="Sorting" sheetId="12" r:id="rId12"/>
-    <sheet name="Copy and Paste as Values" sheetId="13" r:id="rId13"/>
-    <sheet name="FINAL" sheetId="14" r:id="rId14"/>
-    <sheet name="Creator's Message" sheetId="15" r:id="rId15"/>
+    <sheet name="Creator's Message" sheetId="15" r:id="rId1"/>
+    <sheet name="Main Page" sheetId="1" r:id="rId2"/>
+    <sheet name="START" sheetId="2" r:id="rId3"/>
+    <sheet name="Row Delete" sheetId="3" r:id="rId4"/>
+    <sheet name="Column and Row Delete" sheetId="4" r:id="rId5"/>
+    <sheet name="Arrow Navigation" sheetId="5" r:id="rId6"/>
+    <sheet name="Switching Sheets" sheetId="6" r:id="rId7"/>
+    <sheet name="Switching Sheets2" sheetId="7" r:id="rId8"/>
+    <sheet name="Switching Sheets3" sheetId="8" r:id="rId9"/>
+    <sheet name="Copy Down" sheetId="9" r:id="rId10"/>
+    <sheet name="Copy Right" sheetId="10" r:id="rId11"/>
+    <sheet name="Totals" sheetId="11" r:id="rId12"/>
+    <sheet name="Sorting" sheetId="12" r:id="rId13"/>
+    <sheet name="Copy and Paste as Values" sheetId="13" r:id="rId14"/>
+    <sheet name="FINAL" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -562,6 +562,1152 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05A4427F-E7C0-4DB3-B52D-DFC1083A26BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12858750" cy="5419725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="8000"/>
+            <a:t>Welcome!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000"/>
+            <a:t>To</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t> show appreciation for this </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t>valuable, free resource, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Please subscribe to my </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>YouTube channel: ExcelObstacleCourse</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t>Please also share my videos so we can continue to</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t>grow the audience and community!</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71153BB3-5D20-49A3-8BA9-89FD55F22425}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6067425" y="323850"/>
+          <a:ext cx="4781550" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Obstacle:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Copy down the cells in columns B, C and D</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Hotkey hints:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Highlight the cells first.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>control and D (copies cells from the topmost highlighted cells to the bottom)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>The end result should look like</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>this -------&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2442787" cy="2838450"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33DDFE39-C2EB-410B-BAFD-83B0DADDD935}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6981825" y="1981201"/>
+          <a:ext cx="2442787" cy="2838450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4617D0C-FD28-426F-8838-1CE3842605EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6067425" y="323850"/>
+          <a:ext cx="4781550" cy="1924050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Obstacle:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Copy the cells in columns 2 3 and 4 to the right.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Hotkey hints:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Highlight the cells first.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CTRL and R (copies cells from the leftmost highlighted cells to the right)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>The end result should look like</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>this -------&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5048250" cy="927741"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DF74CE1-0707-4B86-9FF3-4B6007B15E29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934201" y="1752600"/>
+          <a:ext cx="5048250" cy="927741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA46746-E141-45A0-94ED-9B3A48A49FDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="190500"/>
+          <a:ext cx="4781550" cy="1933575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Obstacle:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Place totals of each column (A through D) in row 20.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Hotkey hints:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Highlight cells A20, B20, C20 and D20</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>command / shift and T (sums the numbers directly above the cursor)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>The end result should look like</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>this -------&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2600325" cy="3267464"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89243090-ED66-4057-9981-3617A5092239}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5057775" y="1619250"/>
+          <a:ext cx="2600325" cy="3267464"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35B6528A-09AE-4579-9FB2-B90448F437C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="190499"/>
+          <a:ext cx="4781550" cy="3895725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Obstacle:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Sort the numbers in column A in ascending order</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Hotkey hints:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Highlight all the colored cells first, then press at the same time:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>SHIFT COMMAND R</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Hit Enter</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>End result should look like this -------------------------------------------&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>265113</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="706331" cy="4523696"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{250022EE-CE43-43FE-80F1-0EC4985D0638}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5141913" y="1295400"/>
+          <a:ext cx="706331" cy="4523696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06276589-4C28-48E8-BF8B-38096C65D0F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6734175" y="428626"/>
+          <a:ext cx="4781550" cy="3514724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Obstacle:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Copy the grid of numbers in columns A, B and C, rows 1 - 10, and paste as values in the grid appearing in columns G, H and I, rows 1 - 10.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Hotkey hints:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Highlight the cells to copy, then press (in order):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>1) control and C</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Then move your cursor to cell G1, and press (in order)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>1) press (command and option and V) at same time</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2) V (again)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>3) Enter</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>End result should look like this</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>----------------------------------------&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1599948" cy="1771650"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C86F8C4-5242-4085-82A8-E6646CD6C33E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9172576" y="3362326"/>
+          <a:ext cx="1599948" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1590675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C093E14E-EA53-4E0B-A816-2EAA9AFBE3BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8553450" y="1514475"/>
+          <a:ext cx="1885950" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>NOTE: you must hold down fn and command and continue to tap Pg Up until you arrive at the Main Page</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>346075</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>34926</xdr:rowOff>
@@ -931,968 +2077,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4617D0C-FD28-426F-8838-1CE3842605EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6067425" y="323850"/>
-          <a:ext cx="4781550" cy="1924050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Obstacle:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Copy the cells in columns 2 3 and 4 to the right.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Hotkey hints:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Highlight the cells first.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>CTRL and R (copies cells from the leftmost highlighted cells to the right)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>The end result should look like</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>this -------&gt;</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5048250" cy="927741"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DF74CE1-0707-4B86-9FF3-4B6007B15E29}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6934201" y="1752600"/>
-          <a:ext cx="5048250" cy="927741"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA46746-E141-45A0-94ED-9B3A48A49FDE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4267200" y="190500"/>
-          <a:ext cx="4781550" cy="1933575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Obstacle:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Place totals of each column (A through D) in row 20.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Hotkey hints:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Highlight cells A20, B20, C20 and D20</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>command / shift and T (sums the numbers directly above the cursor)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>The end result should look like</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>this -------&gt;</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2600325" cy="3267464"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89243090-ED66-4057-9981-3617A5092239}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5057775" y="1619250"/>
-          <a:ext cx="2600325" cy="3267464"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35B6528A-09AE-4579-9FB2-B90448F437C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="190499"/>
-          <a:ext cx="4781550" cy="3895725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Obstacle:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Sort the numbers in column A in ascending order</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Hotkey hints:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Highlight all the colored cells first, then press at the same time:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>SHIFT COMMAND R</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Hit Enter</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>End result should look like this -------------------------------------------&gt;</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>265113</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="706331" cy="4523696"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{250022EE-CE43-43FE-80F1-0EC4985D0638}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5141913" y="1295400"/>
-          <a:ext cx="706331" cy="4523696"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06276589-4C28-48E8-BF8B-38096C65D0F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6734175" y="428626"/>
-          <a:ext cx="4781550" cy="3514724"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Obstacle:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Copy the grid of numbers in columns A, B and C, rows 1 - 10, and paste as values in the grid appearing in columns G, H and I, rows 1 - 10.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Hotkey hints:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Highlight the cells to copy, then press (in order):</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>1) control and C</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Then move your cursor to cell G1, and press (in order)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>1) press (command and option and V) at same time</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>2) V (again)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>3) Enter</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>End result should look like this</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>----------------------------------------&gt;</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1599948" cy="1771650"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C86F8C4-5242-4085-82A8-E6646CD6C33E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9172576" y="3362326"/>
-          <a:ext cx="1599948" cy="1771650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1590675</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C093E14E-EA53-4E0B-A816-2EAA9AFBE3BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8553450" y="1514475"/>
-          <a:ext cx="1885950" cy="838200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>NOTE: you must hold down fn and command and continue to tap Pg Up until you arrive at the Main Page</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05A4427F-E7C0-4DB3-B52D-DFC1083A26BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12858750" cy="5419725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="8000"/>
-            <a:t>Welcome!</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="4000"/>
-            <a:t>To</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="4000" baseline="0"/>
-            <a:t> show appreciation for this </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="4000" baseline="0"/>
-            <a:t>valuable, free resource, </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="4000" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Please subscribe to my </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="4000" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>YouTube channel: ExcelObstacleCourse</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="4000" baseline="0"/>
-            <a:t>Please also share my videos so we can continue to</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="4000" baseline="0"/>
-            <a:t>grow the audience and community!</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2009,7 +2194,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2126,7 +2311,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2249,7 +2434,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2360,7 +2545,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2500,7 +2685,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2634,7 +2819,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2768,191 +2953,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71153BB3-5D20-49A3-8BA9-89FD55F22425}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6067425" y="323850"/>
-          <a:ext cx="4781550" cy="1905000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Obstacle:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Copy down the cells in columns B, C and D</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Hotkey hints:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Highlight the cells first.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>control and D (copies cells from the topmost highlighted cells to the bottom)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>The end result should look like</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>this -------&gt;</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2442787" cy="2838450"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33DDFE39-C2EB-410B-BAFD-83B0DADDD935}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6981825" y="1981201"/>
-          <a:ext cx="2442787" cy="2838450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3252,10 +3252,1024 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAE1B3A-87AE-4838-BE0D-9B19BFFA8D8C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01C749F-FD13-4858-A24A-9AE74457A6EF}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64354E51-3221-490C-A7C3-7B517FC73A10}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE7A47C-717A-4A5A-BB42-419D6C10A43A}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="6">
+        <v>35</v>
+      </c>
+      <c r="B1" s="6">
+        <v>93</v>
+      </c>
+      <c r="C1" s="6">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>82</v>
+      </c>
+      <c r="B2" s="6">
+        <v>68</v>
+      </c>
+      <c r="C2" s="6">
+        <v>98</v>
+      </c>
+      <c r="D2" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6">
+        <v>50</v>
+      </c>
+      <c r="D3" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>94</v>
+      </c>
+      <c r="B4" s="6">
+        <v>63</v>
+      </c>
+      <c r="C4" s="6">
+        <v>94</v>
+      </c>
+      <c r="D4" s="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>32</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>89</v>
+      </c>
+      <c r="D5" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>96</v>
+      </c>
+      <c r="B6" s="6">
+        <v>68</v>
+      </c>
+      <c r="C6" s="6">
+        <v>38</v>
+      </c>
+      <c r="D6" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>77</v>
+      </c>
+      <c r="B7" s="6">
+        <v>85</v>
+      </c>
+      <c r="C7" s="6">
+        <v>83</v>
+      </c>
+      <c r="D7" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>34</v>
+      </c>
+      <c r="B8" s="6">
+        <v>36</v>
+      </c>
+      <c r="C8" s="6">
+        <v>61</v>
+      </c>
+      <c r="D8" s="6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>66</v>
+      </c>
+      <c r="B9" s="6">
+        <v>85</v>
+      </c>
+      <c r="C9" s="6">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6">
+        <v>32</v>
+      </c>
+      <c r="C10" s="6">
+        <v>77</v>
+      </c>
+      <c r="D10" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>24</v>
+      </c>
+      <c r="B11" s="6">
+        <v>65</v>
+      </c>
+      <c r="C11" s="6">
+        <v>66</v>
+      </c>
+      <c r="D11" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>91</v>
+      </c>
+      <c r="B12" s="6">
+        <v>54</v>
+      </c>
+      <c r="C12" s="6">
+        <v>89</v>
+      </c>
+      <c r="D12" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>83</v>
+      </c>
+      <c r="B13" s="6">
+        <v>87</v>
+      </c>
+      <c r="C13" s="6">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>39</v>
+      </c>
+      <c r="B14" s="6">
+        <v>100</v>
+      </c>
+      <c r="C14" s="6">
+        <v>23</v>
+      </c>
+      <c r="D14" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>97</v>
+      </c>
+      <c r="B15" s="6">
+        <v>53</v>
+      </c>
+      <c r="C15" s="6">
+        <v>54</v>
+      </c>
+      <c r="D15" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>38</v>
+      </c>
+      <c r="B16" s="6">
+        <v>94</v>
+      </c>
+      <c r="C16" s="6">
+        <v>43</v>
+      </c>
+      <c r="D16" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>50</v>
+      </c>
+      <c r="B17" s="6">
+        <v>87</v>
+      </c>
+      <c r="C17" s="6">
+        <v>32</v>
+      </c>
+      <c r="D17" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>60</v>
+      </c>
+      <c r="B18" s="6">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6">
+        <v>18</v>
+      </c>
+      <c r="D18" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>30</v>
+      </c>
+      <c r="B19" s="6">
+        <v>36</v>
+      </c>
+      <c r="C19" s="6">
+        <v>63</v>
+      </c>
+      <c r="D19" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBF7782-C579-4CFA-B2B5-7A6586F429B1}">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A2:A27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>9603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>8789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>8427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>5255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>8703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>7508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>8390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>8695</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>8762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>5178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>8842</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>8979</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>9025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>9308</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A27">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA64087-C1CD-48F2-A387-A003C5691135}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:V12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="6">
+        <f>A12+1</f>
+        <v>6</v>
+      </c>
+      <c r="B1" s="6">
+        <f t="shared" ref="B1:C10" si="0">A1+1</f>
+        <v>7</v>
+      </c>
+      <c r="C1" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <f t="shared" ref="A2:A10" si="1">A1+1</f>
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C2" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B3" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B5" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B6" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B7" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B8" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="V9" s="25"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D23A4F-35B9-420E-81A1-913A9E203D5E}">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A2:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="12" max="12" width="34.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="1">
+      <c r="A12" s="13"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:L10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6988C38D-57A3-49C6-B6CF-22BE4EB1BF6B}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -3352,880 +4366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64354E51-3221-490C-A7C3-7B517FC73A10}">
-  <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE7A47C-717A-4A5A-BB42-419D6C10A43A}">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="6">
-        <v>35</v>
-      </c>
-      <c r="B1" s="6">
-        <v>93</v>
-      </c>
-      <c r="C1" s="6">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>82</v>
-      </c>
-      <c r="B2" s="6">
-        <v>68</v>
-      </c>
-      <c r="C2" s="6">
-        <v>98</v>
-      </c>
-      <c r="D2" s="6">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>33</v>
-      </c>
-      <c r="B3" s="6">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6">
-        <v>50</v>
-      </c>
-      <c r="D3" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>94</v>
-      </c>
-      <c r="B4" s="6">
-        <v>63</v>
-      </c>
-      <c r="C4" s="6">
-        <v>94</v>
-      </c>
-      <c r="D4" s="6">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>32</v>
-      </c>
-      <c r="B5" s="6">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6">
-        <v>89</v>
-      </c>
-      <c r="D5" s="6">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>96</v>
-      </c>
-      <c r="B6" s="6">
-        <v>68</v>
-      </c>
-      <c r="C6" s="6">
-        <v>38</v>
-      </c>
-      <c r="D6" s="6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>77</v>
-      </c>
-      <c r="B7" s="6">
-        <v>85</v>
-      </c>
-      <c r="C7" s="6">
-        <v>83</v>
-      </c>
-      <c r="D7" s="6">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>34</v>
-      </c>
-      <c r="B8" s="6">
-        <v>36</v>
-      </c>
-      <c r="C8" s="6">
-        <v>61</v>
-      </c>
-      <c r="D8" s="6">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>66</v>
-      </c>
-      <c r="B9" s="6">
-        <v>85</v>
-      </c>
-      <c r="C9" s="6">
-        <v>40</v>
-      </c>
-      <c r="D9" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>19</v>
-      </c>
-      <c r="B10" s="6">
-        <v>32</v>
-      </c>
-      <c r="C10" s="6">
-        <v>77</v>
-      </c>
-      <c r="D10" s="6">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>24</v>
-      </c>
-      <c r="B11" s="6">
-        <v>65</v>
-      </c>
-      <c r="C11" s="6">
-        <v>66</v>
-      </c>
-      <c r="D11" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>91</v>
-      </c>
-      <c r="B12" s="6">
-        <v>54</v>
-      </c>
-      <c r="C12" s="6">
-        <v>89</v>
-      </c>
-      <c r="D12" s="6">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>83</v>
-      </c>
-      <c r="B13" s="6">
-        <v>87</v>
-      </c>
-      <c r="C13" s="6">
-        <v>9</v>
-      </c>
-      <c r="D13" s="6">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>39</v>
-      </c>
-      <c r="B14" s="6">
-        <v>100</v>
-      </c>
-      <c r="C14" s="6">
-        <v>23</v>
-      </c>
-      <c r="D14" s="6">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>97</v>
-      </c>
-      <c r="B15" s="6">
-        <v>53</v>
-      </c>
-      <c r="C15" s="6">
-        <v>54</v>
-      </c>
-      <c r="D15" s="6">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>38</v>
-      </c>
-      <c r="B16" s="6">
-        <v>94</v>
-      </c>
-      <c r="C16" s="6">
-        <v>43</v>
-      </c>
-      <c r="D16" s="6">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>50</v>
-      </c>
-      <c r="B17" s="6">
-        <v>87</v>
-      </c>
-      <c r="C17" s="6">
-        <v>32</v>
-      </c>
-      <c r="D17" s="6">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>60</v>
-      </c>
-      <c r="B18" s="6">
-        <v>42</v>
-      </c>
-      <c r="C18" s="6">
-        <v>18</v>
-      </c>
-      <c r="D18" s="6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>30</v>
-      </c>
-      <c r="B19" s="6">
-        <v>36</v>
-      </c>
-      <c r="C19" s="6">
-        <v>63</v>
-      </c>
-      <c r="D19" s="6">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBF7782-C579-4CFA-B2B5-7A6586F429B1}">
-  <sheetPr codeName="Sheet12"/>
-  <dimension ref="A2:A27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>9603</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>8789</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>5430</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>2772</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>4352</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>4790</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>5140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>8427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>5255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>8703</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>5599</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>6010</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>7508</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>8390</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>8695</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>4377</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>8762</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <v>5178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>8842</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
-        <v>8979</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
-        <v>9025</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
-        <v>9308</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A2:A27">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA64087-C1CD-48F2-A387-A003C5691135}">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:V12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="6">
-        <f>A12+1</f>
-        <v>6</v>
-      </c>
-      <c r="B1" s="6">
-        <f t="shared" ref="B1:C10" si="0">A1+1</f>
-        <v>7</v>
-      </c>
-      <c r="C1" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <f t="shared" ref="A2:A10" si="1">A1+1</f>
-        <v>7</v>
-      </c>
-      <c r="B2" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C2" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B3" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C3" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B4" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C4" s="6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B5" s="6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C5" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B6" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C6" s="6">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B7" s="6">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C7" s="6">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B8" s="6">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C8" s="6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B9" s="6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C9" s="6">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="V9" s="25"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B10" s="6">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C10" s="6">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D23A4F-35B9-420E-81A1-913A9E203D5E}">
-  <sheetPr codeName="Sheet14"/>
-  <dimension ref="A2:L13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="12" max="12" width="34.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-    </row>
-    <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="1">
-      <c r="A12" s="13"/>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:L10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAE1B3A-87AE-4838-BE0D-9B19BFFA8D8C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1613475-6024-4178-A6E1-4726614E8B63}">
   <sheetPr codeName="Sheet2">
     <tabColor theme="9"/>
@@ -4246,7 +4387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDC07D5-EF80-4153-9E07-F7A15DCAF65E}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A7:A21"/>
@@ -4278,7 +4419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143E98D0-7323-471D-A1CC-4652EE3F1587}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A8:I23"/>
@@ -4471,7 +4612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE09783C-AC36-40B3-BE1D-87683638E530}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A14:X26"/>
@@ -4844,7 +4985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABFEA3A-40E1-4BC0-A55C-26A2035D475A}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="K5:S11"/>
@@ -4944,7 +5085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9DF1E5-299F-4E45-9E5E-30DD070D2865}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="K5:S11"/>
@@ -5043,7 +5184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77EF86A-A2E4-499A-BA5D-4DB4F6FBA0B9}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="K5:S11"/>
@@ -5140,145 +5281,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01C749F-FD13-4858-A24A-9AE74457A6EF}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>